--- a/biology/Botanique/Matourea_pratensis/Matourea_pratensis.xlsx
+++ b/biology/Botanique/Matourea_pratensis/Matourea_pratensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Matourea partensis est une espèce herbacée sud-américaine appartenant à la famille des Plantaginaceae (anciennement Scrophulariaceae). Matourea partensis est l'espèce type du genre Matourea[3].
-Il était connu en Guyane sous le nom de Basilic sauvage[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Matourea partensis est une espèce herbacée sud-américaine appartenant à la famille des Plantaginaceae (anciennement Scrophulariaceae). Matourea partensis est l'espèce type du genre Matourea.
+Il était connu en Guyane sous le nom de Basilic sauvage.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pollinisation de Matourea partensis a fait l'objet d'une étude [5]. L'abeille Megachile zaptlana est une de ses pollinisatrices[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pollinisation de Matourea partensis a fait l'objet d'une étude . L'abeille Megachile zaptlana est une de ses pollinisatrices.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Matourea partensis était considéré au moins depuis le temps d'Aublet, jusqu'à la fin du XIXe siècle comme un très bon vulnéraire (antiseptique des plaies par son huile essentielle), employé contre la migraine et les inflammations buccales[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Matourea partensis était considéré au moins depuis le temps d'Aublet, jusqu'à la fin du XIXe siècle comme un très bon vulnéraire (antiseptique des plaies par son huile essentielle), employé contre la migraine et les inflammations buccales.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante[1] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante : 
 « MATOUREA pratenſis. (Tabula 259.) 
 Planta annua, bipedalis. CAULIS herbaceus. Rami plures, quadrangulares, nodoſi. Folia oppoſita, è nodis, ovato-oblonga, ſerrata, leviter villoſa, ſubpetiolata. Flores axillares, ſærpiùs ſolitarii, cæruleſcentes. 
 Habitat in pratis inſulæ Caïennæ &amp; Guianæ. 
